--- a/doc/Tables.xlsx
+++ b/doc/Tables.xlsx
@@ -2166,10 +2166,10 @@
   <dimension ref="A1:CB220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="35" topLeftCell="BK36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="35" topLeftCell="AP90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Tables.xlsx
+++ b/doc/Tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="543">
   <si>
     <t>Batch Code</t>
   </si>
@@ -1642,6 +1642,9 @@
   </si>
   <si>
     <t>brand-name</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
 </sst>
 </file>
@@ -2166,10 +2169,10 @@
   <dimension ref="A1:CB220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="35" topLeftCell="AP90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="35" topLeftCell="BY180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10543,10 +10546,10 @@
         <v>42</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>542</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>542</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>182</v>
@@ -20098,7 +20101,7 @@
         <v>188</v>
       </c>
       <c r="B202" t="s">
-        <v>40</v>
+        <v>542</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>184</v>
